--- a/natmiOut/OldD2/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H2">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I2">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J2">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2071866203834</v>
+        <v>16.675925</v>
       </c>
       <c r="N2">
-        <v>14.2071866203834</v>
+        <v>33.35185</v>
       </c>
       <c r="O2">
-        <v>0.02188883174732558</v>
+        <v>0.02433003445663251</v>
       </c>
       <c r="P2">
-        <v>0.02188883174732558</v>
+        <v>0.01773021928083408</v>
       </c>
       <c r="Q2">
-        <v>17.25202881986576</v>
+        <v>20.74803024303333</v>
       </c>
       <c r="R2">
-        <v>17.25202881986576</v>
+        <v>124.4881814582</v>
       </c>
       <c r="S2">
-        <v>0.01332786299342808</v>
+        <v>0.01190703355357762</v>
       </c>
       <c r="T2">
-        <v>0.01332786299342808</v>
+        <v>0.009670759715026967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H3">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I3">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J3">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>166.714833297248</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N3">
-        <v>166.714833297248</v>
+        <v>522.28135</v>
       </c>
       <c r="O3">
-        <v>0.2568554234792205</v>
+        <v>0.2540013670717226</v>
       </c>
       <c r="P3">
-        <v>0.2568554234792205</v>
+        <v>0.2776506509171172</v>
       </c>
       <c r="Q3">
-        <v>202.4446630845778</v>
+        <v>216.6058603480222</v>
       </c>
       <c r="R3">
-        <v>202.4446630845778</v>
+        <v>1949.4527431322</v>
       </c>
       <c r="S3">
-        <v>0.1563963729433971</v>
+        <v>0.1243073784284394</v>
       </c>
       <c r="T3">
-        <v>0.1563963729433971</v>
+        <v>0.1514415973773539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H4">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I4">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J4">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>142.805228914054</v>
+        <v>155.1466163333333</v>
       </c>
       <c r="N4">
-        <v>142.805228914054</v>
+        <v>465.439849</v>
       </c>
       <c r="O4">
-        <v>0.2200182000744133</v>
+        <v>0.2263576096210522</v>
       </c>
       <c r="P4">
-        <v>0.2200182000744133</v>
+        <v>0.2474330684747114</v>
       </c>
       <c r="Q4">
-        <v>173.4108230350184</v>
+        <v>193.0319720068476</v>
       </c>
       <c r="R4">
-        <v>173.4108230350184</v>
+        <v>1737.287748061628</v>
       </c>
       <c r="S4">
-        <v>0.1339666027178774</v>
+        <v>0.1107786204606361</v>
       </c>
       <c r="T4">
-        <v>0.1339666027178774</v>
+        <v>0.1349597381098031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H5">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I5">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J5">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>156.234110601195</v>
+        <v>166.3144986666667</v>
       </c>
       <c r="N5">
-        <v>156.234110601195</v>
+        <v>498.943496</v>
       </c>
       <c r="O5">
-        <v>0.2407079073091197</v>
+        <v>0.2426514561079857</v>
       </c>
       <c r="P5">
-        <v>0.2407079073091197</v>
+        <v>0.2652439847512496</v>
       </c>
       <c r="Q5">
-        <v>189.7177429112404</v>
+        <v>206.9269469724124</v>
       </c>
       <c r="R5">
-        <v>189.7177429112404</v>
+        <v>1862.342522751712</v>
       </c>
       <c r="S5">
-        <v>0.1465643323080825</v>
+        <v>0.1187527717994918</v>
       </c>
       <c r="T5">
-        <v>0.1465643323080825</v>
+        <v>0.1446745131436943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H6">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I6">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J6">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.4524007217556</v>
+        <v>14.709034</v>
       </c>
       <c r="N6">
-        <v>11.4524007217556</v>
+        <v>44.127102</v>
       </c>
       <c r="O6">
-        <v>0.01764456814706735</v>
+        <v>0.02146035701430531</v>
       </c>
       <c r="P6">
-        <v>0.01764456814706735</v>
+        <v>0.02345846466351139</v>
       </c>
       <c r="Q6">
-        <v>13.90684535845473</v>
+        <v>18.30084281848267</v>
       </c>
       <c r="R6">
-        <v>13.90684535845473</v>
+        <v>164.707585366344</v>
       </c>
       <c r="S6">
-        <v>0.01074357871433918</v>
+        <v>0.01050262347538227</v>
       </c>
       <c r="T6">
-        <v>0.01074357871433918</v>
+        <v>0.01279517029377639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.21431704114549</v>
+        <v>1.244190666666667</v>
       </c>
       <c r="H7">
-        <v>1.21431704114549</v>
+        <v>3.732572</v>
       </c>
       <c r="I7">
-        <v>0.608888731352988</v>
+        <v>0.4893964936548494</v>
       </c>
       <c r="J7">
-        <v>0.608888731352988</v>
+        <v>0.5454393745417923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>157.647221463045</v>
+        <v>158.4650495</v>
       </c>
       <c r="N7">
-        <v>157.647221463045</v>
+        <v>316.930099</v>
       </c>
       <c r="O7">
-        <v>0.2428850692428536</v>
+        <v>0.2311991757283016</v>
       </c>
       <c r="P7">
-        <v>0.2428850692428536</v>
+        <v>0.1684836119125762</v>
       </c>
       <c r="Q7">
-        <v>191.4337075118126</v>
+        <v>197.1607355807714</v>
       </c>
       <c r="R7">
-        <v>191.4337075118126</v>
+        <v>1182.964413484628</v>
       </c>
       <c r="S7">
-        <v>0.1478899816758638</v>
+        <v>0.1131480659373222</v>
       </c>
       <c r="T7">
-        <v>0.1478899816758638</v>
+        <v>0.09189759590213764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H8">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I8">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J8">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2071866203834</v>
+        <v>16.675925</v>
       </c>
       <c r="N8">
-        <v>14.2071866203834</v>
+        <v>33.35185</v>
       </c>
       <c r="O8">
-        <v>0.02188883174732558</v>
+        <v>0.02433003445663251</v>
       </c>
       <c r="P8">
-        <v>0.02188883174732558</v>
+        <v>0.01773021928083408</v>
       </c>
       <c r="Q8">
-        <v>11.08160248503735</v>
+        <v>4.1311602521</v>
       </c>
       <c r="R8">
-        <v>11.08160248503735</v>
+        <v>24.7869615126</v>
       </c>
       <c r="S8">
-        <v>0.008560968753897497</v>
+        <v>0.002370820900141959</v>
       </c>
       <c r="T8">
-        <v>0.008560968753897497</v>
+        <v>0.001925554265843816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H9">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I9">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J9">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>166.714833297248</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N9">
-        <v>166.714833297248</v>
+        <v>522.28135</v>
       </c>
       <c r="O9">
-        <v>0.2568554234792205</v>
+        <v>0.2540013670717226</v>
       </c>
       <c r="P9">
-        <v>0.2568554234792205</v>
+        <v>0.2776506509171172</v>
       </c>
       <c r="Q9">
-        <v>130.0375338428203</v>
+        <v>43.12860113273333</v>
       </c>
       <c r="R9">
-        <v>130.0375338428203</v>
+        <v>388.1574101945999</v>
       </c>
       <c r="S9">
-        <v>0.1004590505358234</v>
+        <v>0.02475096164749198</v>
       </c>
       <c r="T9">
-        <v>0.1004590505358234</v>
+        <v>0.03015368207350318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H10">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I10">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J10">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>142.805228914054</v>
+        <v>155.1466163333333</v>
       </c>
       <c r="N10">
-        <v>142.805228914054</v>
+        <v>465.439849</v>
       </c>
       <c r="O10">
-        <v>0.2200182000744133</v>
+        <v>0.2263576096210522</v>
       </c>
       <c r="P10">
-        <v>0.2200182000744133</v>
+        <v>0.2474330684747114</v>
       </c>
       <c r="Q10">
-        <v>111.3880476054169</v>
+        <v>38.43478155748933</v>
       </c>
       <c r="R10">
-        <v>111.3880476054169</v>
+        <v>345.913034017404</v>
       </c>
       <c r="S10">
-        <v>0.08605159735653585</v>
+        <v>0.02205723763985341</v>
       </c>
       <c r="T10">
-        <v>0.08605159735653585</v>
+        <v>0.02687196322649723</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H11">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I11">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J11">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>156.234110601195</v>
+        <v>166.3144986666667</v>
       </c>
       <c r="N11">
-        <v>156.234110601195</v>
+        <v>498.943496</v>
       </c>
       <c r="O11">
-        <v>0.2407079073091197</v>
+        <v>0.2426514561079857</v>
       </c>
       <c r="P11">
-        <v>0.2407079073091197</v>
+        <v>0.2652439847512496</v>
       </c>
       <c r="Q11">
-        <v>121.8625724111929</v>
+        <v>41.20142338369066</v>
       </c>
       <c r="R11">
-        <v>121.8625724111929</v>
+        <v>370.8128104532159</v>
       </c>
       <c r="S11">
-        <v>0.09414357500103715</v>
+        <v>0.02364497858053244</v>
       </c>
       <c r="T11">
-        <v>0.09414357500103715</v>
+        <v>0.02880628142480333</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.779999783288431</v>
+        <v>0.247732</v>
       </c>
       <c r="H12">
-        <v>0.779999783288431</v>
+        <v>0.743196</v>
       </c>
       <c r="I12">
-        <v>0.3911112686470119</v>
+        <v>0.09744420643414499</v>
       </c>
       <c r="J12">
-        <v>0.3911112686470119</v>
+        <v>0.1086029583359576</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.4524007217556</v>
+        <v>14.709034</v>
       </c>
       <c r="N12">
-        <v>11.4524007217556</v>
+        <v>44.127102</v>
       </c>
       <c r="O12">
-        <v>0.01764456814706735</v>
+        <v>0.02146035701430531</v>
       </c>
       <c r="P12">
-        <v>0.01764456814706735</v>
+        <v>0.02345846466351139</v>
       </c>
       <c r="Q12">
-        <v>8.932870081101639</v>
+        <v>3.643898410888</v>
       </c>
       <c r="R12">
-        <v>8.932870081101639</v>
+        <v>32.795085697992</v>
       </c>
       <c r="S12">
-        <v>0.006900989432728166</v>
+        <v>0.002091187459052418</v>
       </c>
       <c r="T12">
-        <v>0.006900989432728166</v>
+        <v>0.002547658660476861</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.247732</v>
+      </c>
+      <c r="H13">
+        <v>0.743196</v>
+      </c>
+      <c r="I13">
+        <v>0.09744420643414499</v>
+      </c>
+      <c r="J13">
+        <v>0.1086029583359576</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>158.4650495</v>
+      </c>
+      <c r="N13">
+        <v>316.930099</v>
+      </c>
+      <c r="O13">
+        <v>0.2311991757283016</v>
+      </c>
+      <c r="P13">
+        <v>0.1684836119125762</v>
+      </c>
+      <c r="Q13">
+        <v>39.256863642734</v>
+      </c>
+      <c r="R13">
+        <v>235.541181856404</v>
+      </c>
+      <c r="S13">
+        <v>0.02252902020707278</v>
+      </c>
+      <c r="T13">
+        <v>0.01829781868483316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.216926</v>
+      </c>
+      <c r="H14">
+        <v>0.650778</v>
+      </c>
+      <c r="I14">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J14">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>16.675925</v>
+      </c>
+      <c r="N14">
+        <v>33.35185</v>
+      </c>
+      <c r="O14">
+        <v>0.02433003445663251</v>
+      </c>
+      <c r="P14">
+        <v>0.01773021928083408</v>
+      </c>
+      <c r="Q14">
+        <v>3.61744170655</v>
+      </c>
+      <c r="R14">
+        <v>21.7046502393</v>
+      </c>
+      <c r="S14">
+        <v>0.002076004289248844</v>
+      </c>
+      <c r="T14">
+        <v>0.001686107505984029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.216926</v>
+      </c>
+      <c r="H15">
+        <v>0.650778</v>
+      </c>
+      <c r="I15">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J15">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>174.0937833333333</v>
+      </c>
+      <c r="N15">
+        <v>522.28135</v>
+      </c>
+      <c r="O15">
+        <v>0.2540013670717226</v>
+      </c>
+      <c r="P15">
+        <v>0.2776506509171172</v>
+      </c>
+      <c r="Q15">
+        <v>37.76546804336667</v>
+      </c>
+      <c r="R15">
+        <v>339.8892123903</v>
+      </c>
+      <c r="S15">
+        <v>0.02167312703382625</v>
+      </c>
+      <c r="T15">
+        <v>0.02640400770783246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.216926</v>
+      </c>
+      <c r="H16">
+        <v>0.650778</v>
+      </c>
+      <c r="I16">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J16">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>155.1466163333333</v>
+      </c>
+      <c r="N16">
+        <v>465.439849</v>
+      </c>
+      <c r="O16">
+        <v>0.2263576096210522</v>
+      </c>
+      <c r="P16">
+        <v>0.2474330684747114</v>
+      </c>
+      <c r="Q16">
+        <v>33.65533489472466</v>
+      </c>
+      <c r="R16">
+        <v>302.898014052522</v>
+      </c>
+      <c r="S16">
+        <v>0.01931437332384529</v>
+      </c>
+      <c r="T16">
+        <v>0.02353037756475198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.216926</v>
+      </c>
+      <c r="H17">
+        <v>0.650778</v>
+      </c>
+      <c r="I17">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J17">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>166.3144986666667</v>
+      </c>
+      <c r="N17">
+        <v>498.943496</v>
+      </c>
+      <c r="O17">
+        <v>0.2426514561079857</v>
+      </c>
+      <c r="P17">
+        <v>0.2652439847512496</v>
+      </c>
+      <c r="Q17">
+        <v>36.07793893776532</v>
+      </c>
+      <c r="R17">
+        <v>324.701450439888</v>
+      </c>
+      <c r="S17">
+        <v>0.02070467530864232</v>
+      </c>
+      <c r="T17">
+        <v>0.02522415918959556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.216926</v>
+      </c>
+      <c r="H18">
+        <v>0.650778</v>
+      </c>
+      <c r="I18">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J18">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.709034</v>
+      </c>
+      <c r="N18">
+        <v>44.127102</v>
+      </c>
+      <c r="O18">
+        <v>0.02146035701430531</v>
+      </c>
+      <c r="P18">
+        <v>0.02345846466351139</v>
+      </c>
+      <c r="Q18">
+        <v>3.190771909484</v>
+      </c>
+      <c r="R18">
+        <v>28.716947185356</v>
+      </c>
+      <c r="S18">
+        <v>0.001831143860068157</v>
+      </c>
+      <c r="T18">
+        <v>0.002230851898755928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.216926</v>
+      </c>
+      <c r="H19">
+        <v>0.650778</v>
+      </c>
+      <c r="I19">
+        <v>0.08532681254312456</v>
+      </c>
+      <c r="J19">
+        <v>0.095097949961999</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>158.4650495</v>
+      </c>
+      <c r="N19">
+        <v>316.930099</v>
+      </c>
+      <c r="O19">
+        <v>0.2311991757283016</v>
+      </c>
+      <c r="P19">
+        <v>0.1684836119125762</v>
+      </c>
+      <c r="Q19">
+        <v>34.375189327837</v>
+      </c>
+      <c r="R19">
+        <v>206.251135967022</v>
+      </c>
+      <c r="S19">
+        <v>0.01972748872749371</v>
+      </c>
+      <c r="T19">
+        <v>0.01602244609507903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.149396</v>
+      </c>
+      <c r="I20">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J20">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>16.675925</v>
+      </c>
+      <c r="N20">
+        <v>33.35185</v>
+      </c>
+      <c r="O20">
+        <v>0.02433003445663251</v>
+      </c>
+      <c r="P20">
+        <v>0.01773021928083408</v>
+      </c>
+      <c r="Q20">
+        <v>0.8304388304333332</v>
+      </c>
+      <c r="R20">
+        <v>4.9826329826</v>
+      </c>
+      <c r="S20">
+        <v>0.0004765783981582357</v>
+      </c>
+      <c r="T20">
+        <v>0.0003870716541800584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.149396</v>
+      </c>
+      <c r="I21">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J21">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>174.0937833333333</v>
+      </c>
+      <c r="N21">
+        <v>522.28135</v>
+      </c>
+      <c r="O21">
+        <v>0.2540013670717226</v>
+      </c>
+      <c r="P21">
+        <v>0.2776506509171172</v>
+      </c>
+      <c r="Q21">
+        <v>8.669638284955555</v>
+      </c>
+      <c r="R21">
+        <v>78.02674456459999</v>
+      </c>
+      <c r="S21">
+        <v>0.004975396350745578</v>
+      </c>
+      <c r="T21">
+        <v>0.006061442051697105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.779999783288431</v>
-      </c>
-      <c r="H13">
-        <v>0.779999783288431</v>
-      </c>
-      <c r="I13">
-        <v>0.3911112686470119</v>
-      </c>
-      <c r="J13">
-        <v>0.3911112686470119</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>157.647221463045</v>
-      </c>
-      <c r="N13">
-        <v>157.647221463045</v>
-      </c>
-      <c r="O13">
-        <v>0.2428850692428536</v>
-      </c>
-      <c r="P13">
-        <v>0.2428850692428536</v>
-      </c>
-      <c r="Q13">
-        <v>122.9647985771984</v>
-      </c>
-      <c r="R13">
-        <v>122.9647985771984</v>
-      </c>
-      <c r="S13">
-        <v>0.09499508756698982</v>
-      </c>
-      <c r="T13">
-        <v>0.09499508756698982</v>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.149396</v>
+      </c>
+      <c r="I22">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J22">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>155.1466163333333</v>
+      </c>
+      <c r="N22">
+        <v>465.439849</v>
+      </c>
+      <c r="O22">
+        <v>0.2263576096210522</v>
+      </c>
+      <c r="P22">
+        <v>0.2474330684747114</v>
+      </c>
+      <c r="Q22">
+        <v>7.726094631244888</v>
+      </c>
+      <c r="R22">
+        <v>69.534851681204</v>
+      </c>
+      <c r="S22">
+        <v>0.004433908517327247</v>
+      </c>
+      <c r="T22">
+        <v>0.005401756492480826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.149396</v>
+      </c>
+      <c r="I23">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J23">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>166.3144986666667</v>
+      </c>
+      <c r="N23">
+        <v>498.943496</v>
+      </c>
+      <c r="O23">
+        <v>0.2426514561079857</v>
+      </c>
+      <c r="P23">
+        <v>0.2652439847512496</v>
+      </c>
+      <c r="Q23">
+        <v>8.28224028093511</v>
+      </c>
+      <c r="R23">
+        <v>74.540162528416</v>
+      </c>
+      <c r="S23">
+        <v>0.004753073509568436</v>
+      </c>
+      <c r="T23">
+        <v>0.005790589857507197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.149396</v>
+      </c>
+      <c r="I24">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J24">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.709034</v>
+      </c>
+      <c r="N24">
+        <v>44.127102</v>
+      </c>
+      <c r="O24">
+        <v>0.02146035701430531</v>
+      </c>
+      <c r="P24">
+        <v>0.02345846466351139</v>
+      </c>
+      <c r="Q24">
+        <v>0.7324902811546666</v>
+      </c>
+      <c r="R24">
+        <v>6.592412530392</v>
+      </c>
+      <c r="S24">
+        <v>0.0004203669578853963</v>
+      </c>
+      <c r="T24">
+        <v>0.0005121260249525039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04979866666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.149396</v>
+      </c>
+      <c r="I25">
+        <v>0.0195880691828744</v>
+      </c>
+      <c r="J25">
+        <v>0.02183118257304765</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>158.4650495</v>
+      </c>
+      <c r="N25">
+        <v>316.930099</v>
+      </c>
+      <c r="O25">
+        <v>0.2311991757283016</v>
+      </c>
+      <c r="P25">
+        <v>0.1684836119125762</v>
+      </c>
+      <c r="Q25">
+        <v>7.891348178367334</v>
+      </c>
+      <c r="R25">
+        <v>47.348089070204</v>
+      </c>
+      <c r="S25">
+        <v>0.004528745449189508</v>
+      </c>
+      <c r="T25">
+        <v>0.003678196492229958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7836485</v>
+      </c>
+      <c r="H26">
+        <v>1.567297</v>
+      </c>
+      <c r="I26">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J26">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>16.675925</v>
+      </c>
+      <c r="N26">
+        <v>33.35185</v>
+      </c>
+      <c r="O26">
+        <v>0.02433003445663251</v>
+      </c>
+      <c r="P26">
+        <v>0.01773021928083408</v>
+      </c>
+      <c r="Q26">
+        <v>13.0680636123625</v>
+      </c>
+      <c r="R26">
+        <v>52.27225444945</v>
+      </c>
+      <c r="S26">
+        <v>0.007499597315505853</v>
+      </c>
+      <c r="T26">
+        <v>0.004060726139799212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.7836485</v>
+      </c>
+      <c r="H27">
+        <v>1.567297</v>
+      </c>
+      <c r="I27">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J27">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>174.0937833333333</v>
+      </c>
+      <c r="N27">
+        <v>522.28135</v>
+      </c>
+      <c r="O27">
+        <v>0.2540013670717226</v>
+      </c>
+      <c r="P27">
+        <v>0.2776506509171172</v>
+      </c>
+      <c r="Q27">
+        <v>136.4283321684917</v>
+      </c>
+      <c r="R27">
+        <v>818.5699930109499</v>
+      </c>
+      <c r="S27">
+        <v>0.07829450361121944</v>
+      </c>
+      <c r="T27">
+        <v>0.06358992170673054</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.7836485</v>
+      </c>
+      <c r="H28">
+        <v>1.567297</v>
+      </c>
+      <c r="I28">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J28">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>155.1466163333333</v>
+      </c>
+      <c r="N28">
+        <v>465.439849</v>
+      </c>
+      <c r="O28">
+        <v>0.2263576096210522</v>
+      </c>
+      <c r="P28">
+        <v>0.2474330684747114</v>
+      </c>
+      <c r="Q28">
+        <v>121.5804131696922</v>
+      </c>
+      <c r="R28">
+        <v>729.482479018153</v>
+      </c>
+      <c r="S28">
+        <v>0.06977346967939009</v>
+      </c>
+      <c r="T28">
+        <v>0.05666923308117835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.7836485</v>
+      </c>
+      <c r="H29">
+        <v>1.567297</v>
+      </c>
+      <c r="I29">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J29">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>166.3144986666667</v>
+      </c>
+      <c r="N29">
+        <v>498.943496</v>
+      </c>
+      <c r="O29">
+        <v>0.2426514561079857</v>
+      </c>
+      <c r="P29">
+        <v>0.2652439847512496</v>
+      </c>
+      <c r="Q29">
+        <v>130.3321074083853</v>
+      </c>
+      <c r="R29">
+        <v>781.9926444503119</v>
+      </c>
+      <c r="S29">
+        <v>0.07479595690975074</v>
+      </c>
+      <c r="T29">
+        <v>0.06074844113564925</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.7836485</v>
+      </c>
+      <c r="H30">
+        <v>1.567297</v>
+      </c>
+      <c r="I30">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J30">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>14.709034</v>
+      </c>
+      <c r="N30">
+        <v>44.127102</v>
+      </c>
+      <c r="O30">
+        <v>0.02146035701430531</v>
+      </c>
+      <c r="P30">
+        <v>0.02345846466351139</v>
+      </c>
+      <c r="Q30">
+        <v>11.526712430549</v>
+      </c>
+      <c r="R30">
+        <v>69.160274583294</v>
+      </c>
+      <c r="S30">
+        <v>0.006615035261917065</v>
+      </c>
+      <c r="T30">
+        <v>0.00537265778554971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.7836485</v>
+      </c>
+      <c r="H31">
+        <v>1.567297</v>
+      </c>
+      <c r="I31">
+        <v>0.3082444181850066</v>
+      </c>
+      <c r="J31">
+        <v>0.2290285345872035</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>158.4650495</v>
+      </c>
+      <c r="N31">
+        <v>316.930099</v>
+      </c>
+      <c r="O31">
+        <v>0.2311991757283016</v>
+      </c>
+      <c r="P31">
+        <v>0.1684836119125762</v>
+      </c>
+      <c r="Q31">
+        <v>124.1808983431008</v>
+      </c>
+      <c r="R31">
+        <v>496.7235933724031</v>
+      </c>
+      <c r="S31">
+        <v>0.07126585540722344</v>
+      </c>
+      <c r="T31">
+        <v>0.03858755473829644</v>
       </c>
     </row>
   </sheetData>
